--- a/metrics/transfer_time/cleaned_data/Kafka_02.nan.xlsx
+++ b/metrics/transfer_time/cleaned_data/Kafka_02.nan.xlsx
@@ -616,14 +616,30 @@
       <c r="Q2" t="n">
         <v>5672</v>
       </c>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10820804</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>194</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -677,14 +693,30 @@
       <c r="Q3" t="n">
         <v>5677</v>
       </c>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T3" t="n">
+        <v>10820804</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>194</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -738,14 +770,30 @@
       <c r="Q4" t="n">
         <v>5677</v>
       </c>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T4" t="n">
+        <v>10820804</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>194</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -876,14 +924,30 @@
       <c r="Q6" t="n">
         <v>5676</v>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T6" t="n">
+        <v>10820804</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>194</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -937,14 +1001,30 @@
       <c r="Q7" t="n">
         <v>5671</v>
       </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T7" t="n">
+        <v>10820804</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>194</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -998,14 +1078,30 @@
       <c r="Q8" t="n">
         <v>5671</v>
       </c>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T8" t="n">
+        <v>10820804</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>194</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1059,14 +1155,30 @@
       <c r="Q9" t="n">
         <v>5676</v>
       </c>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T9" t="n">
+        <v>10820804</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>194</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1197,14 +1309,30 @@
       <c r="Q11" t="n">
         <v>5676</v>
       </c>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T11" t="n">
+        <v>10821104</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>195</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1258,14 +1386,30 @@
       <c r="Q12" t="n">
         <v>5677</v>
       </c>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T12" t="n">
+        <v>10821104</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>195</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1319,14 +1463,30 @@
       <c r="Q13" t="n">
         <v>5675</v>
       </c>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T13" t="n">
+        <v>10821104</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>195</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1380,14 +1540,30 @@
       <c r="Q14" t="n">
         <v>5676</v>
       </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T14" t="n">
+        <v>10821104</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>195</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1518,14 +1694,30 @@
       <c r="Q16" t="n">
         <v>5670</v>
       </c>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T16" t="n">
+        <v>10821404</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>193</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1579,14 +1771,30 @@
       <c r="Q17" t="n">
         <v>5674</v>
       </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T17" t="n">
+        <v>10821404</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>193</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1640,14 +1848,30 @@
       <c r="Q18" t="n">
         <v>5670</v>
       </c>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T18" t="n">
+        <v>10821404</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>193</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1701,14 +1925,30 @@
       <c r="Q19" t="n">
         <v>5675</v>
       </c>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T19" t="n">
+        <v>10821404</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>193</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1839,14 +2079,30 @@
       <c r="Q21" t="n">
         <v>5676</v>
       </c>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T21" t="n">
+        <v>10821704</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>193</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1900,14 +2156,30 @@
       <c r="Q22" t="n">
         <v>5676</v>
       </c>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T22" t="n">
+        <v>10821704</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>193</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1961,14 +2233,30 @@
       <c r="Q23" t="n">
         <v>5676</v>
       </c>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T23" t="n">
+        <v>10821704</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>193</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -2022,14 +2310,30 @@
       <c r="Q24" t="n">
         <v>5675</v>
       </c>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T24" t="n">
+        <v>10821704</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>193</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -2160,14 +2464,30 @@
       <c r="Q26" t="n">
         <v>5670</v>
       </c>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T26" t="n">
+        <v>10822004</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>193</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -2221,14 +2541,30 @@
       <c r="Q27" t="n">
         <v>5670</v>
       </c>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T27" t="n">
+        <v>10822004</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>193</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -2282,14 +2618,30 @@
       <c r="Q28" t="n">
         <v>5672</v>
       </c>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T28" t="n">
+        <v>10822004</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>193</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -2343,14 +2695,30 @@
       <c r="Q29" t="n">
         <v>5671</v>
       </c>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+      <c r="R29" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T29" t="n">
+        <v>10822004</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>193</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -2481,14 +2849,30 @@
       <c r="Q31" t="n">
         <v>5678</v>
       </c>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T31" t="n">
+        <v>10822304</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>193</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2542,14 +2926,30 @@
       <c r="Q32" t="n">
         <v>5671</v>
       </c>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
+      <c r="R32" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T32" t="n">
+        <v>10822304</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>193</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2603,14 +3003,30 @@
       <c r="Q33" t="n">
         <v>5671</v>
       </c>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
+      <c r="R33" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T33" t="n">
+        <v>10822304</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
+        <v>193</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2664,14 +3080,30 @@
       <c r="Q34" t="n">
         <v>5676</v>
       </c>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+      <c r="R34" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T34" t="n">
+        <v>10822304</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>193</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2802,14 +3234,30 @@
       <c r="Q36" t="n">
         <v>5675</v>
       </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+      <c r="R36" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T36" t="n">
+        <v>10822604</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>193</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2863,14 +3311,30 @@
       <c r="Q37" t="n">
         <v>5676</v>
       </c>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
+      <c r="R37" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T37" t="n">
+        <v>10822604</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>193</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2924,14 +3388,30 @@
       <c r="Q38" t="n">
         <v>5670</v>
       </c>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
+      <c r="R38" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T38" t="n">
+        <v>10822604</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>193</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2985,14 +3465,30 @@
       <c r="Q39" t="n">
         <v>5671</v>
       </c>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T39" t="n">
+        <v>10822604</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>193</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -3123,14 +3619,30 @@
       <c r="Q41" t="n">
         <v>5677</v>
       </c>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
+      <c r="R41" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T41" t="n">
+        <v>10822903</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>196</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -3184,14 +3696,30 @@
       <c r="Q42" t="n">
         <v>5671</v>
       </c>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T42" t="n">
+        <v>10822903</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>196</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -3245,14 +3773,30 @@
       <c r="Q43" t="n">
         <v>5678</v>
       </c>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
+      <c r="R43" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T43" t="n">
+        <v>10822903</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>196</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -3306,14 +3850,30 @@
       <c r="Q44" t="n">
         <v>5671</v>
       </c>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
+      <c r="R44" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T44" t="n">
+        <v>10822903</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>196</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -3444,14 +4004,30 @@
       <c r="Q46" t="n">
         <v>5675</v>
       </c>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
+      <c r="R46" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T46" t="n">
+        <v>10823203</v>
+      </c>
+      <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>193</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -3505,14 +4081,30 @@
       <c r="Q47" t="n">
         <v>5676</v>
       </c>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
+      <c r="R47" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S47" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T47" t="n">
+        <v>10823203</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V47" t="n">
+        <v>193</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -3566,14 +4158,30 @@
       <c r="Q48" t="n">
         <v>5677</v>
       </c>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
+      <c r="R48" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T48" t="n">
+        <v>10823203</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0</v>
+      </c>
+      <c r="V48" t="n">
+        <v>193</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -3627,14 +4235,30 @@
       <c r="Q49" t="n">
         <v>5676</v>
       </c>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+      <c r="R49" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S49" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T49" t="n">
+        <v>10823203</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0</v>
+      </c>
+      <c r="V49" t="n">
+        <v>193</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -3765,14 +4389,30 @@
       <c r="Q51" t="n">
         <v>5676</v>
       </c>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
+      <c r="R51" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S51" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T51" t="n">
+        <v>10823503</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V51" t="n">
+        <v>193</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3826,14 +4466,30 @@
       <c r="Q52" t="n">
         <v>5675</v>
       </c>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
+      <c r="R52" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T52" t="n">
+        <v>10823503</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V52" t="n">
+        <v>193</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3887,14 +4543,30 @@
       <c r="Q53" t="n">
         <v>5675</v>
       </c>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
+      <c r="R53" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S53" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T53" t="n">
+        <v>10823503</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0</v>
+      </c>
+      <c r="V53" t="n">
+        <v>193</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3948,14 +4620,30 @@
       <c r="Q54" t="n">
         <v>5676</v>
       </c>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
+      <c r="R54" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S54" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T54" t="n">
+        <v>10823503</v>
+      </c>
+      <c r="U54" t="n">
+        <v>0</v>
+      </c>
+      <c r="V54" t="n">
+        <v>193</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -4086,14 +4774,30 @@
       <c r="Q56" t="n">
         <v>5670</v>
       </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
+      <c r="R56" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T56" t="n">
+        <v>10823803</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0</v>
+      </c>
+      <c r="V56" t="n">
+        <v>193</v>
+      </c>
+      <c r="W56" t="n">
+        <v>0</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -4147,14 +4851,30 @@
       <c r="Q57" t="n">
         <v>5669</v>
       </c>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
+      <c r="R57" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S57" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T57" t="n">
+        <v>10823803</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0</v>
+      </c>
+      <c r="V57" t="n">
+        <v>193</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -4208,14 +4928,30 @@
       <c r="Q58" t="n">
         <v>5676</v>
       </c>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S58" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T58" t="n">
+        <v>10823803</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+      <c r="V58" t="n">
+        <v>193</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -4269,14 +5005,30 @@
       <c r="Q59" t="n">
         <v>5686</v>
       </c>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
+      <c r="R59" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S59" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T59" t="n">
+        <v>10823803</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0</v>
+      </c>
+      <c r="V59" t="n">
+        <v>193</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -4484,14 +5236,30 @@
       <c r="Q62" t="n">
         <v>5680</v>
       </c>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
+      <c r="R62" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T62" t="n">
+        <v>10824104</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0</v>
+      </c>
+      <c r="V62" t="n">
+        <v>196</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -4545,14 +5313,30 @@
       <c r="Q63" t="n">
         <v>5673</v>
       </c>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
+      <c r="R63" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T63" t="n">
+        <v>10824104</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0</v>
+      </c>
+      <c r="V63" t="n">
+        <v>196</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -4606,14 +5390,30 @@
       <c r="Q64" t="n">
         <v>5672</v>
       </c>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
+      <c r="R64" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S64" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T64" t="n">
+        <v>10824104</v>
+      </c>
+      <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
+        <v>196</v>
+      </c>
+      <c r="W64" t="n">
+        <v>0</v>
+      </c>
+      <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -4744,14 +5544,30 @@
       <c r="Q66" t="n">
         <v>5677</v>
       </c>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
+      <c r="R66" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S66" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T66" t="n">
+        <v>10824404</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+      <c r="V66" t="n">
+        <v>193</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -4805,14 +5621,30 @@
       <c r="Q67" t="n">
         <v>5676</v>
       </c>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
+      <c r="R67" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S67" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T67" t="n">
+        <v>10824404</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0</v>
+      </c>
+      <c r="V67" t="n">
+        <v>193</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -4866,14 +5698,30 @@
       <c r="Q68" t="n">
         <v>5676</v>
       </c>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
+      <c r="R68" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S68" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T68" t="n">
+        <v>10824404</v>
+      </c>
+      <c r="U68" t="n">
+        <v>0</v>
+      </c>
+      <c r="V68" t="n">
+        <v>193</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -4927,14 +5775,30 @@
       <c r="Q69" t="n">
         <v>5674</v>
       </c>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
+      <c r="R69" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S69" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T69" t="n">
+        <v>10824404</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>193</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -5065,14 +5929,30 @@
       <c r="Q71" t="n">
         <v>5676</v>
       </c>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
+      <c r="R71" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S71" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T71" t="n">
+        <v>10824704</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+      <c r="V71" t="n">
+        <v>193</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -5126,14 +6006,30 @@
       <c r="Q72" t="n">
         <v>5676</v>
       </c>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
+      <c r="R72" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T72" t="n">
+        <v>10824704</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>193</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -5187,14 +6083,30 @@
       <c r="Q73" t="n">
         <v>5675</v>
       </c>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
+      <c r="R73" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T73" t="n">
+        <v>10824704</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>193</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -5248,14 +6160,30 @@
       <c r="Q74" t="n">
         <v>5670</v>
       </c>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr"/>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
+      <c r="R74" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T74" t="n">
+        <v>10824704</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>193</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -5386,14 +6314,30 @@
       <c r="Q76" t="n">
         <v>5670</v>
       </c>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+      <c r="R76" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T76" t="n">
+        <v>10825004</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>195</v>
+      </c>
+      <c r="W76" t="n">
+        <v>0</v>
+      </c>
+      <c r="X76" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -5447,14 +6391,30 @@
       <c r="Q77" t="n">
         <v>5670</v>
       </c>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
+      <c r="R77" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S77" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T77" t="n">
+        <v>10825004</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>195</v>
+      </c>
+      <c r="W77" t="n">
+        <v>0</v>
+      </c>
+      <c r="X77" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -5508,14 +6468,30 @@
       <c r="Q78" t="n">
         <v>5676</v>
       </c>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr"/>
-      <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
+      <c r="R78" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T78" t="n">
+        <v>10825004</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0</v>
+      </c>
+      <c r="V78" t="n">
+        <v>195</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -5569,14 +6545,30 @@
       <c r="Q79" t="n">
         <v>5671</v>
       </c>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr"/>
-      <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+      <c r="R79" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T79" t="n">
+        <v>10825004</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>195</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -5707,14 +6699,30 @@
       <c r="Q81" t="n">
         <v>5675</v>
       </c>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr"/>
-      <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
+      <c r="R81" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T81" t="n">
+        <v>10825304</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>193</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -5768,14 +6776,30 @@
       <c r="Q82" t="n">
         <v>5675</v>
       </c>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
-      <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
+      <c r="R82" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T82" t="n">
+        <v>10825304</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>193</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -5829,14 +6853,30 @@
       <c r="Q83" t="n">
         <v>5670</v>
       </c>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr"/>
-      <c r="V83" t="inlineStr"/>
-      <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
+      <c r="R83" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T83" t="n">
+        <v>10825304</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>193</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -5890,14 +6930,30 @@
       <c r="Q84" t="n">
         <v>5670</v>
       </c>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr"/>
-      <c r="V84" t="inlineStr"/>
-      <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
+      <c r="R84" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T84" t="n">
+        <v>10825304</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>193</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -6028,14 +7084,30 @@
       <c r="Q86" t="n">
         <v>5671</v>
       </c>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr"/>
-      <c r="V86" t="inlineStr"/>
-      <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
+      <c r="R86" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T86" t="n">
+        <v>10825604</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>195</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -6089,14 +7161,30 @@
       <c r="Q87" t="n">
         <v>5675</v>
       </c>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr"/>
-      <c r="V87" t="inlineStr"/>
-      <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
+      <c r="R87" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T87" t="n">
+        <v>10825604</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>195</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -6150,14 +7238,30 @@
       <c r="Q88" t="n">
         <v>5674</v>
       </c>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr"/>
-      <c r="V88" t="inlineStr"/>
-      <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
+      <c r="R88" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T88" t="n">
+        <v>10825604</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>195</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -6211,14 +7315,30 @@
       <c r="Q89" t="n">
         <v>5670</v>
       </c>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
+      <c r="R89" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T89" t="n">
+        <v>10825604</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>195</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -6349,14 +7469,30 @@
       <c r="Q91" t="n">
         <v>5672</v>
       </c>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="inlineStr"/>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
+      <c r="R91" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T91" t="n">
+        <v>10825904</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>196</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -6410,14 +7546,30 @@
       <c r="Q92" t="n">
         <v>5676</v>
       </c>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
-      <c r="T92" t="inlineStr"/>
-      <c r="U92" t="inlineStr"/>
-      <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr"/>
+      <c r="R92" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T92" t="n">
+        <v>10825904</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>196</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -6471,14 +7623,30 @@
       <c r="Q93" t="n">
         <v>5676</v>
       </c>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="inlineStr"/>
-      <c r="T93" t="inlineStr"/>
-      <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr"/>
+      <c r="R93" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T93" t="n">
+        <v>10825904</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>196</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -6532,14 +7700,30 @@
       <c r="Q94" t="n">
         <v>5679</v>
       </c>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="inlineStr"/>
-      <c r="T94" t="inlineStr"/>
-      <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr"/>
-      <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr"/>
+      <c r="R94" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T94" t="n">
+        <v>10825904</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>196</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -6670,14 +7854,30 @@
       <c r="Q96" t="n">
         <v>5671</v>
       </c>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="inlineStr"/>
-      <c r="T96" t="inlineStr"/>
-      <c r="U96" t="inlineStr"/>
-      <c r="V96" t="inlineStr"/>
-      <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr"/>
+      <c r="R96" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T96" t="n">
+        <v>10826204</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>193</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -6731,14 +7931,30 @@
       <c r="Q97" t="n">
         <v>5676</v>
       </c>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
-      <c r="T97" t="inlineStr"/>
-      <c r="U97" t="inlineStr"/>
-      <c r="V97" t="inlineStr"/>
-      <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr"/>
+      <c r="R97" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T97" t="n">
+        <v>10826204</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>193</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -6792,14 +8008,30 @@
       <c r="Q98" t="n">
         <v>5670</v>
       </c>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="inlineStr"/>
-      <c r="T98" t="inlineStr"/>
-      <c r="U98" t="inlineStr"/>
-      <c r="V98" t="inlineStr"/>
-      <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr"/>
+      <c r="R98" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T98" t="n">
+        <v>10826204</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" t="n">
+        <v>193</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -6853,14 +8085,30 @@
       <c r="Q99" t="n">
         <v>5677</v>
       </c>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
+      <c r="R99" t="n">
+        <v>3232</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="T99" t="n">
+        <v>10826204</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>193</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -6991,14 +8239,30 @@
       <c r="Q101" t="n">
         <v>5676</v>
       </c>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="inlineStr"/>
-      <c r="T101" t="inlineStr"/>
-      <c r="U101" t="inlineStr"/>
-      <c r="V101" t="inlineStr"/>
-      <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr"/>
+      <c r="R101" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T101" t="n">
+        <v>10826504</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>193</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -7052,14 +8316,30 @@
       <c r="Q102" t="n">
         <v>5675</v>
       </c>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="inlineStr"/>
-      <c r="T102" t="inlineStr"/>
-      <c r="U102" t="inlineStr"/>
-      <c r="V102" t="inlineStr"/>
-      <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr"/>
+      <c r="R102" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T102" t="n">
+        <v>10826504</v>
+      </c>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>193</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -7113,14 +8393,30 @@
       <c r="Q103" t="n">
         <v>5678</v>
       </c>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="inlineStr"/>
-      <c r="T103" t="inlineStr"/>
-      <c r="U103" t="inlineStr"/>
-      <c r="V103" t="inlineStr"/>
-      <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr"/>
+      <c r="R103" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T103" t="n">
+        <v>10826504</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1</v>
+      </c>
+      <c r="V103" t="n">
+        <v>193</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -7174,14 +8470,30 @@
       <c r="Q104" t="n">
         <v>5670</v>
       </c>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="inlineStr"/>
-      <c r="T104" t="inlineStr"/>
-      <c r="U104" t="inlineStr"/>
-      <c r="V104" t="inlineStr"/>
-      <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr"/>
+      <c r="R104" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T104" t="n">
+        <v>10826504</v>
+      </c>
+      <c r="U104" t="n">
+        <v>1</v>
+      </c>
+      <c r="V104" t="n">
+        <v>193</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -7312,14 +8624,30 @@
       <c r="Q106" t="n">
         <v>5677</v>
       </c>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
-      <c r="U106" t="inlineStr"/>
-      <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
+      <c r="R106" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T106" t="n">
+        <v>10826804</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>193</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -7373,14 +8701,30 @@
       <c r="Q107" t="n">
         <v>5670</v>
       </c>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="inlineStr"/>
-      <c r="T107" t="inlineStr"/>
-      <c r="U107" t="inlineStr"/>
-      <c r="V107" t="inlineStr"/>
-      <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr"/>
+      <c r="R107" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T107" t="n">
+        <v>10826804</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>193</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -7434,14 +8778,30 @@
       <c r="Q108" t="n">
         <v>5674</v>
       </c>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="inlineStr"/>
-      <c r="T108" t="inlineStr"/>
-      <c r="U108" t="inlineStr"/>
-      <c r="V108" t="inlineStr"/>
-      <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr"/>
+      <c r="R108" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T108" t="n">
+        <v>10826804</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>193</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -7495,14 +8855,30 @@
       <c r="Q109" t="n">
         <v>5671</v>
       </c>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="inlineStr"/>
-      <c r="T109" t="inlineStr"/>
-      <c r="U109" t="inlineStr"/>
-      <c r="V109" t="inlineStr"/>
-      <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr"/>
+      <c r="R109" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T109" t="n">
+        <v>10826804</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>193</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -7633,14 +9009,30 @@
       <c r="Q111" t="n">
         <v>5671</v>
       </c>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="inlineStr"/>
-      <c r="T111" t="inlineStr"/>
-      <c r="U111" t="inlineStr"/>
-      <c r="V111" t="inlineStr"/>
-      <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr"/>
+      <c r="R111" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T111" t="n">
+        <v>10827104</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>193</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -7694,14 +9086,30 @@
       <c r="Q112" t="n">
         <v>5670</v>
       </c>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
+      <c r="R112" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T112" t="n">
+        <v>10827104</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" t="n">
+        <v>193</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -7755,14 +9163,30 @@
       <c r="Q113" t="n">
         <v>5677</v>
       </c>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
+      <c r="R113" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T113" t="n">
+        <v>10827104</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>193</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -7816,14 +9240,30 @@
       <c r="Q114" t="n">
         <v>5671</v>
       </c>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
+      <c r="R114" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T114" t="n">
+        <v>10827104</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0</v>
+      </c>
+      <c r="V114" t="n">
+        <v>193</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -7954,14 +9394,30 @@
       <c r="Q116" t="n">
         <v>5676</v>
       </c>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="inlineStr"/>
-      <c r="T116" t="inlineStr"/>
-      <c r="U116" t="inlineStr"/>
-      <c r="V116" t="inlineStr"/>
-      <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
+      <c r="R116" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S116" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T116" t="n">
+        <v>10827404</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0</v>
+      </c>
+      <c r="V116" t="n">
+        <v>197</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -8015,14 +9471,30 @@
       <c r="Q117" t="n">
         <v>5671</v>
       </c>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="inlineStr"/>
-      <c r="T117" t="inlineStr"/>
-      <c r="U117" t="inlineStr"/>
-      <c r="V117" t="inlineStr"/>
-      <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr"/>
+      <c r="R117" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S117" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T117" t="n">
+        <v>10827404</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>197</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -8076,14 +9548,30 @@
       <c r="Q118" t="n">
         <v>5670</v>
       </c>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="inlineStr"/>
-      <c r="T118" t="inlineStr"/>
-      <c r="U118" t="inlineStr"/>
-      <c r="V118" t="inlineStr"/>
-      <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr"/>
+      <c r="R118" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T118" t="n">
+        <v>10827404</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0</v>
+      </c>
+      <c r="V118" t="n">
+        <v>197</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -8137,14 +9625,30 @@
       <c r="Q119" t="n">
         <v>5670</v>
       </c>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="inlineStr"/>
-      <c r="T119" t="inlineStr"/>
-      <c r="U119" t="inlineStr"/>
-      <c r="V119" t="inlineStr"/>
-      <c r="W119" t="inlineStr"/>
-      <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr"/>
+      <c r="R119" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T119" t="n">
+        <v>10827404</v>
+      </c>
+      <c r="U119" t="n">
+        <v>0</v>
+      </c>
+      <c r="V119" t="n">
+        <v>197</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -8352,14 +9856,30 @@
       <c r="Q122" t="n">
         <v>5673</v>
       </c>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="inlineStr"/>
-      <c r="T122" t="inlineStr"/>
-      <c r="U122" t="inlineStr"/>
-      <c r="V122" t="inlineStr"/>
-      <c r="W122" t="inlineStr"/>
-      <c r="X122" t="inlineStr"/>
-      <c r="Y122" t="inlineStr"/>
+      <c r="R122" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S122" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T122" t="n">
+        <v>10827704</v>
+      </c>
+      <c r="U122" t="n">
+        <v>0</v>
+      </c>
+      <c r="V122" t="n">
+        <v>194</v>
+      </c>
+      <c r="W122" t="n">
+        <v>0</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -8413,14 +9933,30 @@
       <c r="Q123" t="n">
         <v>5674</v>
       </c>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="inlineStr"/>
-      <c r="T123" t="inlineStr"/>
-      <c r="U123" t="inlineStr"/>
-      <c r="V123" t="inlineStr"/>
-      <c r="W123" t="inlineStr"/>
-      <c r="X123" t="inlineStr"/>
-      <c r="Y123" t="inlineStr"/>
+      <c r="R123" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S123" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T123" t="n">
+        <v>10827704</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0</v>
+      </c>
+      <c r="V123" t="n">
+        <v>194</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0</v>
+      </c>
+      <c r="X123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -8474,14 +10010,30 @@
       <c r="Q124" t="n">
         <v>5679</v>
       </c>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="inlineStr"/>
-      <c r="T124" t="inlineStr"/>
-      <c r="U124" t="inlineStr"/>
-      <c r="V124" t="inlineStr"/>
-      <c r="W124" t="inlineStr"/>
-      <c r="X124" t="inlineStr"/>
-      <c r="Y124" t="inlineStr"/>
+      <c r="R124" t="n">
+        <v>3200</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0.199</v>
+      </c>
+      <c r="T124" t="n">
+        <v>10827704</v>
+      </c>
+      <c r="U124" t="n">
+        <v>0</v>
+      </c>
+      <c r="V124" t="n">
+        <v>194</v>
+      </c>
+      <c r="W124" t="n">
+        <v>0</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -8612,14 +10164,30 @@
       <c r="Q126" t="n">
         <v>5679</v>
       </c>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="inlineStr"/>
-      <c r="T126" t="inlineStr"/>
-      <c r="U126" t="inlineStr"/>
-      <c r="V126" t="inlineStr"/>
-      <c r="W126" t="inlineStr"/>
-      <c r="X126" t="inlineStr"/>
-      <c r="Y126" t="inlineStr"/>
+      <c r="R126" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S126" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T126" t="n">
+        <v>10828004</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0</v>
+      </c>
+      <c r="V126" t="n">
+        <v>193</v>
+      </c>
+      <c r="W126" t="n">
+        <v>0</v>
+      </c>
+      <c r="X126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -8673,14 +10241,30 @@
       <c r="Q127" t="n">
         <v>5679</v>
       </c>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="inlineStr"/>
-      <c r="T127" t="inlineStr"/>
-      <c r="U127" t="inlineStr"/>
-      <c r="V127" t="inlineStr"/>
-      <c r="W127" t="inlineStr"/>
-      <c r="X127" t="inlineStr"/>
-      <c r="Y127" t="inlineStr"/>
+      <c r="R127" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T127" t="n">
+        <v>10828004</v>
+      </c>
+      <c r="U127" t="n">
+        <v>0</v>
+      </c>
+      <c r="V127" t="n">
+        <v>193</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -8734,14 +10318,30 @@
       <c r="Q128" t="n">
         <v>5672</v>
       </c>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="inlineStr"/>
-      <c r="T128" t="inlineStr"/>
-      <c r="U128" t="inlineStr"/>
-      <c r="V128" t="inlineStr"/>
-      <c r="W128" t="inlineStr"/>
-      <c r="X128" t="inlineStr"/>
-      <c r="Y128" t="inlineStr"/>
+      <c r="R128" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S128" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T128" t="n">
+        <v>10828004</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0</v>
+      </c>
+      <c r="V128" t="n">
+        <v>193</v>
+      </c>
+      <c r="W128" t="n">
+        <v>0</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -8795,14 +10395,30 @@
       <c r="Q129" t="n">
         <v>5672</v>
       </c>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="inlineStr"/>
-      <c r="T129" t="inlineStr"/>
-      <c r="U129" t="inlineStr"/>
-      <c r="V129" t="inlineStr"/>
-      <c r="W129" t="inlineStr"/>
-      <c r="X129" t="inlineStr"/>
-      <c r="Y129" t="inlineStr"/>
+      <c r="R129" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S129" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T129" t="n">
+        <v>10828004</v>
+      </c>
+      <c r="U129" t="n">
+        <v>0</v>
+      </c>
+      <c r="V129" t="n">
+        <v>193</v>
+      </c>
+      <c r="W129" t="n">
+        <v>0</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -8933,14 +10549,30 @@
       <c r="Q131" t="n">
         <v>5678</v>
       </c>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="inlineStr"/>
-      <c r="T131" t="inlineStr"/>
-      <c r="U131" t="inlineStr"/>
-      <c r="V131" t="inlineStr"/>
-      <c r="W131" t="inlineStr"/>
-      <c r="X131" t="inlineStr"/>
-      <c r="Y131" t="inlineStr"/>
+      <c r="R131" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T131" t="n">
+        <v>10828304</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0</v>
+      </c>
+      <c r="V131" t="n">
+        <v>193</v>
+      </c>
+      <c r="W131" t="n">
+        <v>0</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -8994,14 +10626,30 @@
       <c r="Q132" t="n">
         <v>5679</v>
       </c>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="inlineStr"/>
-      <c r="T132" t="inlineStr"/>
-      <c r="U132" t="inlineStr"/>
-      <c r="V132" t="inlineStr"/>
-      <c r="W132" t="inlineStr"/>
-      <c r="X132" t="inlineStr"/>
-      <c r="Y132" t="inlineStr"/>
+      <c r="R132" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S132" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T132" t="n">
+        <v>10828304</v>
+      </c>
+      <c r="U132" t="n">
+        <v>0</v>
+      </c>
+      <c r="V132" t="n">
+        <v>193</v>
+      </c>
+      <c r="W132" t="n">
+        <v>0</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -9055,14 +10703,30 @@
       <c r="Q133" t="n">
         <v>5679</v>
       </c>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="inlineStr"/>
-      <c r="T133" t="inlineStr"/>
-      <c r="U133" t="inlineStr"/>
-      <c r="V133" t="inlineStr"/>
-      <c r="W133" t="inlineStr"/>
-      <c r="X133" t="inlineStr"/>
-      <c r="Y133" t="inlineStr"/>
+      <c r="R133" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S133" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T133" t="n">
+        <v>10828304</v>
+      </c>
+      <c r="U133" t="n">
+        <v>0</v>
+      </c>
+      <c r="V133" t="n">
+        <v>193</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0</v>
+      </c>
+      <c r="X133" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -9116,14 +10780,30 @@
       <c r="Q134" t="n">
         <v>5673</v>
       </c>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="inlineStr"/>
-      <c r="T134" t="inlineStr"/>
-      <c r="U134" t="inlineStr"/>
-      <c r="V134" t="inlineStr"/>
-      <c r="W134" t="inlineStr"/>
-      <c r="X134" t="inlineStr"/>
-      <c r="Y134" t="inlineStr"/>
+      <c r="R134" t="n">
+        <v>3264</v>
+      </c>
+      <c r="S134" t="n">
+        <v>0.203</v>
+      </c>
+      <c r="T134" t="n">
+        <v>10828304</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0</v>
+      </c>
+      <c r="V134" t="n">
+        <v>193</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -9254,14 +10934,30 @@
       <c r="Q136" t="n">
         <v>5679</v>
       </c>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
+      <c r="R136" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S136" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T136" t="n">
+        <v>10828604</v>
+      </c>
+      <c r="U136" t="n">
+        <v>0</v>
+      </c>
+      <c r="V136" t="n">
+        <v>193</v>
+      </c>
+      <c r="W136" t="n">
+        <v>0</v>
+      </c>
+      <c r="X136" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -9315,14 +11011,30 @@
       <c r="Q137" t="n">
         <v>5679</v>
       </c>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="inlineStr"/>
-      <c r="T137" t="inlineStr"/>
-      <c r="U137" t="inlineStr"/>
-      <c r="V137" t="inlineStr"/>
-      <c r="W137" t="inlineStr"/>
-      <c r="X137" t="inlineStr"/>
-      <c r="Y137" t="inlineStr"/>
+      <c r="R137" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S137" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T137" t="n">
+        <v>10828604</v>
+      </c>
+      <c r="U137" t="n">
+        <v>0</v>
+      </c>
+      <c r="V137" t="n">
+        <v>193</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -9376,14 +11088,30 @@
       <c r="Q138" t="n">
         <v>5675</v>
       </c>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="inlineStr"/>
-      <c r="T138" t="inlineStr"/>
-      <c r="U138" t="inlineStr"/>
-      <c r="V138" t="inlineStr"/>
-      <c r="W138" t="inlineStr"/>
-      <c r="X138" t="inlineStr"/>
-      <c r="Y138" t="inlineStr"/>
+      <c r="R138" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S138" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T138" t="n">
+        <v>10828604</v>
+      </c>
+      <c r="U138" t="n">
+        <v>0</v>
+      </c>
+      <c r="V138" t="n">
+        <v>193</v>
+      </c>
+      <c r="W138" t="n">
+        <v>0</v>
+      </c>
+      <c r="X138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -9437,14 +11165,30 @@
       <c r="Q139" t="n">
         <v>5680</v>
       </c>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="inlineStr"/>
-      <c r="T139" t="inlineStr"/>
-      <c r="U139" t="inlineStr"/>
-      <c r="V139" t="inlineStr"/>
-      <c r="W139" t="inlineStr"/>
-      <c r="X139" t="inlineStr"/>
-      <c r="Y139" t="inlineStr"/>
+      <c r="R139" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S139" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T139" t="n">
+        <v>10828604</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0</v>
+      </c>
+      <c r="V139" t="n">
+        <v>193</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X139" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -9575,14 +11319,30 @@
       <c r="Q141" t="n">
         <v>5684</v>
       </c>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="inlineStr"/>
-      <c r="T141" t="inlineStr"/>
-      <c r="U141" t="inlineStr"/>
-      <c r="V141" t="inlineStr"/>
-      <c r="W141" t="inlineStr"/>
-      <c r="X141" t="inlineStr"/>
-      <c r="Y141" t="inlineStr"/>
+      <c r="R141" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S141" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T141" t="n">
+        <v>10828904</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0</v>
+      </c>
+      <c r="V141" t="n">
+        <v>193</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -9636,14 +11396,30 @@
       <c r="Q142" t="n">
         <v>5678</v>
       </c>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="inlineStr"/>
-      <c r="T142" t="inlineStr"/>
-      <c r="U142" t="inlineStr"/>
-      <c r="V142" t="inlineStr"/>
-      <c r="W142" t="inlineStr"/>
-      <c r="X142" t="inlineStr"/>
-      <c r="Y142" t="inlineStr"/>
+      <c r="R142" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S142" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T142" t="n">
+        <v>10828904</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+      <c r="V142" t="n">
+        <v>193</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -9697,45 +11473,107 @@
       <c r="Q143" t="n">
         <v>5678</v>
       </c>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="inlineStr"/>
-      <c r="T143" t="inlineStr"/>
-      <c r="U143" t="inlineStr"/>
-      <c r="V143" t="inlineStr"/>
-      <c r="W143" t="inlineStr"/>
-      <c r="X143" t="inlineStr"/>
-      <c r="Y143" t="inlineStr"/>
+      <c r="R143" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S143" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T143" t="n">
+        <v>10828904</v>
+      </c>
+      <c r="U143" t="n">
+        <v>0</v>
+      </c>
+      <c r="V143" t="n">
+        <v>193</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
         <v>45186.76597222222</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="inlineStr"/>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr"/>
+      <c r="B144" t="n">
+        <v>97.98999999999999</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.26</v>
+      </c>
       <c r="F144" t="n">
         <v>0</v>
       </c>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="inlineStr"/>
-      <c r="T144" t="inlineStr"/>
-      <c r="U144" t="inlineStr"/>
-      <c r="V144" t="inlineStr"/>
-      <c r="W144" t="inlineStr"/>
-      <c r="X144" t="inlineStr"/>
-      <c r="Y144" t="inlineStr"/>
+      <c r="G144" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L144" t="n">
+        <v>10077</v>
+      </c>
+      <c r="M144" t="n">
+        <v>431</v>
+      </c>
+      <c r="N144" t="n">
+        <v>35.74</v>
+      </c>
+      <c r="O144" t="n">
+        <v>28.27</v>
+      </c>
+      <c r="P144" t="n">
+        <v>10207</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>5678</v>
+      </c>
+      <c r="R144" t="n">
+        <v>3296</v>
+      </c>
+      <c r="S144" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="T144" t="n">
+        <v>10828904</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0</v>
+      </c>
+      <c r="V144" t="n">
+        <v>193</v>
+      </c>
+      <c r="W144" t="n">
+        <v>0</v>
+      </c>
+      <c r="X144" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
